--- a/data/0056.xlsx
+++ b/data/0056.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43229,6 +43229,41 @@
         <v>1195300</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>0056</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>GRANFLO</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>599600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0056.xlsx
+++ b/data/0056.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43264,6 +43264,41 @@
         <v>599600</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>0056</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>GRANFLO</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>157300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0056.xlsx
+++ b/data/0056.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43299,6 +43299,41 @@
         <v>157300</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>0056</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>GRANFLO</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>149800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0056.xlsx
+++ b/data/0056.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43334,6 +43334,41 @@
         <v>149800</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>0056</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>GRANFLO</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>334100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0056.xlsx
+++ b/data/0056.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43369,6 +43369,41 @@
         <v>334100</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>0056</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>GRANFLO</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>430000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0056.xlsx
+++ b/data/0056.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43404,6 +43404,41 @@
         <v>430000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>0056</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>GRANFLO</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>68800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0056.xlsx
+++ b/data/0056.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43439,6 +43439,41 @@
         <v>68800</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>0056</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>GRANFLO</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>105000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0056.xlsx
+++ b/data/0056.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43474,6 +43474,43 @@
         <v>105000</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>0056</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>GRANFLO</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1225" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0056.xlsx
+++ b/data/0056.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43511,6 +43511,41 @@
         </is>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>0056</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>GRANFLO</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>52800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0056.xlsx
+++ b/data/0056.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43546,6 +43546,41 @@
         <v>52800</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>0056</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>GRANFLO</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>79600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0056.xlsx
+++ b/data/0056.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43581,6 +43581,41 @@
         <v>79600</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>0056</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>GRANFLO</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>4500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0056.xlsx
+++ b/data/0056.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43616,6 +43616,41 @@
         <v>4500</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>0056</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>GRANFLO</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>9500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0056.xlsx
+++ b/data/0056.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43651,6 +43651,76 @@
         <v>9500</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>0056</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>GRANFLO</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>174500</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>0056</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>GRANFLO</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>485000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0056.xlsx
+++ b/data/0056.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43721,6 +43721,76 @@
         <v>485000</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>0056</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>GRANFLO</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>258000</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>0056</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>GRANFLO</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>72600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0056.xlsx
+++ b/data/0056.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43791,6 +43791,41 @@
         <v>72600</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>0056</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>GRANFLO</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0056.xlsx
+++ b/data/0056.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43826,6 +43826,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>0056</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>GRANFLO</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>41000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0056.xlsx
+++ b/data/0056.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43861,6 +43861,41 @@
         <v>41000</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>0056</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>GRANFLO</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>151500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0056.xlsx
+++ b/data/0056.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43896,6 +43896,41 @@
         <v>151500</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>0056</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>GRANFLO</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>594000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0056.xlsx
+++ b/data/0056.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43931,6 +43931,76 @@
         <v>594000</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>0056</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>GRANFLO</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>136000</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>0056</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>GRANFLO</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>100900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0056.xlsx
+++ b/data/0056.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44001,6 +44001,41 @@
         <v>100900</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>0056</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>GRANFLO</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>490300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0056.xlsx
+++ b/data/0056.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44036,6 +44036,41 @@
         <v>490300</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>0056</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>GRANFLO</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>405100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0056.xlsx
+++ b/data/0056.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2303"/>
+  <dimension ref="A1:I2304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81241,6 +81241,41 @@
         <v>405100</v>
       </c>
     </row>
+    <row r="2304">
+      <c r="A2304" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2304" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2304" t="inlineStr">
+        <is>
+          <t>0056</t>
+        </is>
+      </c>
+      <c r="D2304" t="inlineStr">
+        <is>
+          <t>GRANFLO</t>
+        </is>
+      </c>
+      <c r="E2304" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F2304" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G2304" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H2304" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I2304" t="n">
+        <v>1010900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0056.xlsx
+++ b/data/0056.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2304"/>
+  <dimension ref="A1:I2305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81276,6 +81276,41 @@
         <v>1010900</v>
       </c>
     </row>
+    <row r="2305">
+      <c r="A2305" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2305" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2305" t="inlineStr">
+        <is>
+          <t>0056</t>
+        </is>
+      </c>
+      <c r="D2305" t="inlineStr">
+        <is>
+          <t>GRANFLO</t>
+        </is>
+      </c>
+      <c r="E2305" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2305" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2305" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H2305" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I2305" t="n">
+        <v>226000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0056.xlsx
+++ b/data/0056.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2305"/>
+  <dimension ref="A1:I2306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81311,6 +81311,41 @@
         <v>226000</v>
       </c>
     </row>
+    <row r="2306">
+      <c r="A2306" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2306" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2306" t="inlineStr">
+        <is>
+          <t>0056</t>
+        </is>
+      </c>
+      <c r="D2306" t="inlineStr">
+        <is>
+          <t>GRANFLO</t>
+        </is>
+      </c>
+      <c r="E2306" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F2306" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G2306" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H2306" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I2306" t="n">
+        <v>54100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0056.xlsx
+++ b/data/0056.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2306"/>
+  <dimension ref="A1:I2307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81346,6 +81346,41 @@
         <v>54100</v>
       </c>
     </row>
+    <row r="2307">
+      <c r="A2307" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2307" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2307" t="inlineStr">
+        <is>
+          <t>0056</t>
+        </is>
+      </c>
+      <c r="D2307" t="inlineStr">
+        <is>
+          <t>GRANFLO</t>
+        </is>
+      </c>
+      <c r="E2307" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F2307" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2307" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H2307" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2307" t="n">
+        <v>406500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0056.xlsx
+++ b/data/0056.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2307"/>
+  <dimension ref="A1:I2308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81381,6 +81381,41 @@
         <v>406500</v>
       </c>
     </row>
+    <row r="2308">
+      <c r="A2308" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2308" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2308" t="inlineStr">
+        <is>
+          <t>0056</t>
+        </is>
+      </c>
+      <c r="D2308" t="inlineStr">
+        <is>
+          <t>GRANFLO</t>
+        </is>
+      </c>
+      <c r="E2308" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F2308" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G2308" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H2308" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I2308" t="n">
+        <v>614000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0056.xlsx
+++ b/data/0056.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2308"/>
+  <dimension ref="A1:I2309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81416,6 +81416,41 @@
         <v>614000</v>
       </c>
     </row>
+    <row r="2309">
+      <c r="A2309" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2309" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2309" t="inlineStr">
+        <is>
+          <t>0056</t>
+        </is>
+      </c>
+      <c r="D2309" t="inlineStr">
+        <is>
+          <t>GRANFLO</t>
+        </is>
+      </c>
+      <c r="E2309" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F2309" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G2309" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H2309" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I2309" t="n">
+        <v>277500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0056.xlsx
+++ b/data/0056.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2309"/>
+  <dimension ref="A1:I2310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81451,6 +81451,41 @@
         <v>277500</v>
       </c>
     </row>
+    <row r="2310">
+      <c r="A2310" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2310" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2310" t="inlineStr">
+        <is>
+          <t>0056</t>
+        </is>
+      </c>
+      <c r="D2310" t="inlineStr">
+        <is>
+          <t>GRANFLO</t>
+        </is>
+      </c>
+      <c r="E2310" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2310" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G2310" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H2310" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I2310" t="n">
+        <v>655000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0056.xlsx
+++ b/data/0056.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2310"/>
+  <dimension ref="A1:I2311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81486,6 +81486,41 @@
         <v>655000</v>
       </c>
     </row>
+    <row r="2311">
+      <c r="A2311" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2311" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2311" t="inlineStr">
+        <is>
+          <t>0056</t>
+        </is>
+      </c>
+      <c r="D2311" t="inlineStr">
+        <is>
+          <t>GRANFLO</t>
+        </is>
+      </c>
+      <c r="E2311" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F2311" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G2311" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H2311" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I2311" t="n">
+        <v>401600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0056.xlsx
+++ b/data/0056.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2311"/>
+  <dimension ref="A1:I2312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81521,6 +81521,41 @@
         <v>401600</v>
       </c>
     </row>
+    <row r="2312">
+      <c r="A2312" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2312" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2312" t="inlineStr">
+        <is>
+          <t>0056</t>
+        </is>
+      </c>
+      <c r="D2312" t="inlineStr">
+        <is>
+          <t>GRANFLO</t>
+        </is>
+      </c>
+      <c r="E2312" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F2312" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G2312" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H2312" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I2312" t="n">
+        <v>927600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0056.xlsx
+++ b/data/0056.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2312"/>
+  <dimension ref="A1:I2313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81556,6 +81556,41 @@
         <v>927600</v>
       </c>
     </row>
+    <row r="2313">
+      <c r="A2313" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2313" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2313" t="inlineStr">
+        <is>
+          <t>0056</t>
+        </is>
+      </c>
+      <c r="D2313" t="inlineStr">
+        <is>
+          <t>GRANFLO</t>
+        </is>
+      </c>
+      <c r="E2313" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F2313" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2313" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H2313" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2313" t="n">
+        <v>968900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0056.xlsx
+++ b/data/0056.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2313"/>
+  <dimension ref="A1:I2314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81591,6 +81591,41 @@
         <v>968900</v>
       </c>
     </row>
+    <row r="2314">
+      <c r="A2314" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2314" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2314" t="inlineStr">
+        <is>
+          <t>0056</t>
+        </is>
+      </c>
+      <c r="D2314" t="inlineStr">
+        <is>
+          <t>GRANFLO</t>
+        </is>
+      </c>
+      <c r="E2314" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F2314" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G2314" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H2314" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I2314" t="n">
+        <v>10500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0056.xlsx
+++ b/data/0056.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2314"/>
+  <dimension ref="A1:I2315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81626,6 +81626,41 @@
         <v>10500</v>
       </c>
     </row>
+    <row r="2315">
+      <c r="A2315" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2315" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2315" t="inlineStr">
+        <is>
+          <t>0056</t>
+        </is>
+      </c>
+      <c r="D2315" t="inlineStr">
+        <is>
+          <t>GRANFLO</t>
+        </is>
+      </c>
+      <c r="E2315" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F2315" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G2315" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H2315" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I2315" t="n">
+        <v>3348800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0056.xlsx
+++ b/data/0056.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2315"/>
+  <dimension ref="A1:I2316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81661,6 +81661,41 @@
         <v>3348800</v>
       </c>
     </row>
+    <row r="2316">
+      <c r="A2316" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2316" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2316" t="inlineStr">
+        <is>
+          <t>0056</t>
+        </is>
+      </c>
+      <c r="D2316" t="inlineStr">
+        <is>
+          <t>GRANFLO</t>
+        </is>
+      </c>
+      <c r="E2316" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F2316" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G2316" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2316" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I2316" t="n">
+        <v>348500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0056.xlsx
+++ b/data/0056.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2316"/>
+  <dimension ref="A1:I2317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81696,6 +81696,41 @@
         <v>348500</v>
       </c>
     </row>
+    <row r="2317">
+      <c r="A2317" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2317" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2317" t="inlineStr">
+        <is>
+          <t>0056</t>
+        </is>
+      </c>
+      <c r="D2317" t="inlineStr">
+        <is>
+          <t>GRANFLO</t>
+        </is>
+      </c>
+      <c r="E2317" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F2317" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G2317" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2317" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I2317" t="n">
+        <v>119900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0056.xlsx
+++ b/data/0056.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2317"/>
+  <dimension ref="A1:I2318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81731,6 +81731,41 @@
         <v>119900</v>
       </c>
     </row>
+    <row r="2318">
+      <c r="A2318" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2318" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2318" t="inlineStr">
+        <is>
+          <t>0056</t>
+        </is>
+      </c>
+      <c r="D2318" t="inlineStr">
+        <is>
+          <t>GRANFLO</t>
+        </is>
+      </c>
+      <c r="E2318" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F2318" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G2318" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H2318" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I2318" t="n">
+        <v>102000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
